--- a/results/final_results/ny_final.xlsx
+++ b/results/final_results/ny_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\WorkOnword\CitySearch\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C6C11-8554-4390-83CB-6B6402170EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDA1A77-9F8D-4A78-9C2A-5E5E5FAC8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38304" yWindow="-2280" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18290,7 +18290,7 @@
   <dimension ref="A1:L1312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
